--- a/atmega328p-example/minimal-atmega328p-arduino-BOM.xlsx
+++ b/atmega328p-example/minimal-atmega328p-arduino-BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="60">
   <si>
     <t>Qty</t>
   </si>
@@ -165,6 +165,15 @@
     <t>RC0805JR-070RL</t>
   </si>
   <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>RS-187R05A2-DS MT RT</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
   </si>
   <si>
     <t>ATMEGA328P-PU</t>
+  </si>
+  <si>
+    <t>X1</t>
   </si>
   <si>
     <t>ECS</t>
@@ -275,7 +287,7 @@
   <dimension ref="A1:WVT18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2181,7 +2193,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CONN HEADER VERT 6POS 2.54MM</t>
+          <t>CONN HEADER VERT 6POS 1 ROW 2.54MM</t>
         </is>
       </c>
     </row>
@@ -2214,8 +2226,10 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5">
-        <v>629105136821</v>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>629105136821</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -5913,56 +5927,73 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SW1</t>
+        </is>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="inlineStr">
+    </row>
+    <row r="16" spans="1:16140" ht="13.5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>IC REG LINEAR 5V 1A SOT223</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:16140" ht="13.5">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="17" spans="1:16140" ht="13.5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>IC MCU 8BIT 32KB FLASH 28DIP</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:16140" ht="13.5">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>X1</t>
-        </is>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="18" spans="1:16140" ht="13.5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>CRYSTAL 16.000 MHZ 18PF SMD</t>
         </is>

--- a/atmega328p-example/minimal-atmega328p-arduino-BOM.xlsx
+++ b/atmega328p-example/minimal-atmega328p-arduino-BOM.xlsx
@@ -19,51 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="60">
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t>MFR</t>
-  </si>
-  <si>
-    <t>MPN</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>C1, C3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
   <si>
     <t>Samsung</t>
-  </si>
-  <si>
-    <t>CL21A106KOQNNNG</t>
-  </si>
-  <si>
-    <t>C2, C4, C5, C6, C9</t>
-  </si>
-  <si>
-    <t>CL21B104KBCNNNC</t>
-  </si>
-  <si>
-    <t>C7, C8</t>
-  </si>
-  <si>
-    <t>CL21C180JBANNNC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SMC Diode</t>
-  </si>
-  <si>
-    <t>10BQ030TR</t>
   </si>
   <si>
     <t>D2, D3</t>
@@ -87,24 +45,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Harwin</t>
-  </si>
-  <si>
-    <t>M20-9980345</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>Sullins</t>
-  </si>
-  <si>
-    <t>PRPC006SAAN-RC</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -112,15 +52,6 @@
   </si>
   <si>
     <t>WR-COM SMT Horizontal 5 Contacts Micro USB Type B,5 pins=&gt;Code : Con_I-O_COM_MicroUSB_629105136821</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>CUI</t>
-  </si>
-  <si>
-    <t>PJ-202A</t>
   </si>
   <si>
     <t>Q1</t>
@@ -144,61 +75,7 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>R1, R6</t>
-  </si>
-  <si>
     <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>R2, R3, R4, R5</t>
-  </si>
-  <si>
-    <t>RC0805FR-071KL</t>
-  </si>
-  <si>
-    <t>R7, R8</t>
-  </si>
-  <si>
-    <t>RC0805JR-070RL</t>
-  </si>
-  <si>
-    <t>C&amp;K</t>
-  </si>
-  <si>
-    <t>RS-187R05A2-DS MT RT</t>
-  </si>
-  <si>
-    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>NCP1117ST50T3G</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>ATMEGA328P-PU</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>ECS</t>
-  </si>
-  <si>
-    <t>ECS-160-18-5PX-TR</t>
   </si>
 </sst>
 </file>
@@ -287,7 +164,7 @@
   <dimension ref="A1:WVT18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -555,34 +432,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16140" ht="13.5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Parts</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>MFR</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>MPN</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
       </c>
     </row>
     <row r="2" spans="1:16140" ht="13.5">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>C1, C3</t>
+        </is>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CL21A106KOQNNNG</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -594,14 +485,18 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C2, C4, C5, C6, C9</t>
+        </is>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CL21B104KBCNNNC</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -613,18 +508,22 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C7, C8</t>
+        </is>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CL21C300JBANNNC</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAP CER 18PF 50V C0G/NP0 0805</t>
+          <t>CAP CER 30PF 50V C0G/NP0 0805</t>
         </is>
       </c>
     </row>
@@ -632,14 +531,20 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SMC Diode</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10BQ030TR</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -652,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -669,1527 +574,1533 @@
         <v>2</v>
       </c>
       <c r="IX6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="IY6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="IZ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="JA6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="JB6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="JD6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="JE6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="SS6">
         <v>2</v>
       </c>
       <c r="ST6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="SU6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="SV6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="SW6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="SX6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="SZ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="TA6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="ACO6">
         <v>2</v>
       </c>
       <c r="ACP6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="ACQ6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="ACR6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="ACS6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="ACT6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="ACV6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="ACW6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AMK6">
         <v>2</v>
       </c>
       <c r="AML6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AMM6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AMN6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AMO6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AMP6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AMR6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AMS6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AWG6">
         <v>2</v>
       </c>
       <c r="AWH6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AWI6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AWJ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AWK6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AWL6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AWN6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AWO6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BGC6">
         <v>2</v>
       </c>
       <c r="BGD6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BGE6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="BGF6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BGG6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BGH6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="BGJ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BGK6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BPY6">
         <v>2</v>
       </c>
       <c r="BPZ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BQA6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="BQB6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BQC6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BQD6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="BQF6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BQG6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BZU6">
         <v>2</v>
       </c>
       <c r="BZV6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BZW6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="BZX6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BZY6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BZZ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="CAB6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="CAC6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="CJQ6">
         <v>2</v>
       </c>
       <c r="CJR6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CJS6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="CJT6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="CJU6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="CJV6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="CJX6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="CJY6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="CTM6">
         <v>2</v>
       </c>
       <c r="CTN6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="CTO6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="CTP6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="CTQ6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="CTR6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="CTT6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="CTU6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="DDI6">
         <v>2</v>
       </c>
       <c r="DDJ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DDK6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="DDL6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="DDM6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="DDN6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="DDP6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="DDQ6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="DNE6">
         <v>2</v>
       </c>
       <c r="DNF6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DNG6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="DNH6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="DNI6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="DNJ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="DNL6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="DNM6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="DXA6">
         <v>2</v>
       </c>
       <c r="DXB6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="DXC6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="DXD6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="DXE6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="DXF6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="DXH6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="DXI6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="EGW6">
         <v>2</v>
       </c>
       <c r="EGX6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="EGY6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="EGZ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="EHA6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="EHB6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="EHD6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="EHE6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="EQS6">
         <v>2</v>
       </c>
       <c r="EQT6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="EQU6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="EQV6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="EQW6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="EQX6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="EQZ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="ERA6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="FAO6">
         <v>2</v>
       </c>
       <c r="FAP6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="FAQ6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="FAR6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="FAS6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="FAT6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="FAV6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="FAW6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="FKK6">
         <v>2</v>
       </c>
       <c r="FKL6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="FKM6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="FKN6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="FKO6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="FKP6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="FKR6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="FKS6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="FUG6">
         <v>2</v>
       </c>
       <c r="FUH6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="FUI6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="FUJ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="FUK6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="FUL6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="FUN6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="FUO6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="GEC6">
         <v>2</v>
       </c>
       <c r="GED6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="GEE6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="GEF6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="GEG6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="GEH6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="GEJ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="GEK6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="GNY6">
         <v>2</v>
       </c>
       <c r="GNZ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="GOA6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="GOB6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="GOC6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="GOD6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="GOF6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="GOG6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="GXU6">
         <v>2</v>
       </c>
       <c r="GXV6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="GXW6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="GXX6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="GXY6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="GXZ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="GYB6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="GYC6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="HHQ6">
         <v>2</v>
       </c>
       <c r="HHR6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="HHS6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="HHT6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="HHU6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="HHV6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="HHX6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="HHY6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="HRM6">
         <v>2</v>
       </c>
       <c r="HRN6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="HRO6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="HRP6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="HRQ6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="HRR6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="HRT6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="HRU6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="IBI6">
         <v>2</v>
       </c>
       <c r="IBJ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="IBK6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="IBL6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="IBM6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="IBN6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="IBP6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="IBQ6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="ILE6">
         <v>2</v>
       </c>
       <c r="ILF6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="ILG6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="ILH6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="ILI6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="ILJ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="ILL6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="ILM6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="IVA6">
         <v>2</v>
       </c>
       <c r="IVB6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="IVC6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="IVD6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="IVE6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="IVF6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="IVH6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="IVI6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="JEW6">
         <v>2</v>
       </c>
       <c r="JEX6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="JEY6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="JEZ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="JFA6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="JFB6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="JFD6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="JFE6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="JOS6">
         <v>2</v>
       </c>
       <c r="JOT6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="JOU6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="JOV6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="JOW6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="JOX6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="JOZ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="JPA6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="JYO6">
         <v>2</v>
       </c>
       <c r="JYP6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="JYQ6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="JYR6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="JYS6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="JYT6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="JYV6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="JYW6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="KIK6">
         <v>2</v>
       </c>
       <c r="KIL6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="KIM6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="KIN6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="KIO6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="KIP6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="KIR6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="KIS6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="KSG6">
         <v>2</v>
       </c>
       <c r="KSH6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="KSI6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="KSJ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="KSK6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="KSL6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="KSN6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="KSO6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="LCC6">
         <v>2</v>
       </c>
       <c r="LCD6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="LCE6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="LCF6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="LCG6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="LCH6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="LCJ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="LCK6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="LLY6">
         <v>2</v>
       </c>
       <c r="LLZ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="LMA6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="LMB6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="LMC6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="LMD6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="LMF6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="LMG6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="LVU6">
         <v>2</v>
       </c>
       <c r="LVV6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="LVW6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="LVX6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="LVY6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="LVZ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="LWB6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="LWC6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="MFQ6">
         <v>2</v>
       </c>
       <c r="MFR6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="MFS6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="MFT6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="MFU6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="MFV6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="MFX6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="MFY6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="MPM6">
         <v>2</v>
       </c>
       <c r="MPN6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="MPO6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="MPP6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="MPQ6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="MPR6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="MPT6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="MPU6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="MZI6">
         <v>2</v>
       </c>
       <c r="MZJ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="MZK6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="MZL6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="MZM6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="MZN6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="MZP6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="MZQ6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="NJE6">
         <v>2</v>
       </c>
       <c r="NJF6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="NJG6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="NJH6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="NJI6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="NJJ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="NJL6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="NJM6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="NTA6">
         <v>2</v>
       </c>
       <c r="NTB6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="NTC6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="NTD6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="NTE6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="NTF6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="NTH6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="NTI6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="OCW6">
         <v>2</v>
       </c>
       <c r="OCX6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="OCY6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="OCZ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="ODA6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="ODB6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="ODD6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="ODE6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="OMS6">
         <v>2</v>
       </c>
       <c r="OMT6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="OMU6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="OMV6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="OMW6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="OMX6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="OMZ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="ONA6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="OWO6">
         <v>2</v>
       </c>
       <c r="OWP6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="OWQ6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="OWR6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="OWS6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="OWT6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="OWV6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="OWW6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="PGK6">
         <v>2</v>
       </c>
       <c r="PGL6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="PGM6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="PGN6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="PGO6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="PGP6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="PGR6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="PGS6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="PQG6">
         <v>2</v>
       </c>
       <c r="PQH6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="PQI6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="PQJ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="PQK6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="PQL6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="PQN6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="PQO6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="QAC6">
         <v>2</v>
       </c>
       <c r="QAD6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="QAE6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="QAF6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="QAG6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="QAH6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="QAJ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="QAK6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="QJY6">
         <v>2</v>
       </c>
       <c r="QJZ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="QKA6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="QKB6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="QKC6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="QKD6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="QKF6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="QKG6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="QTU6">
         <v>2</v>
       </c>
       <c r="QTV6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="QTW6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="QTX6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="QTY6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="QTZ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="QUB6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="QUC6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="RDQ6">
         <v>2</v>
       </c>
       <c r="RDR6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="RDS6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="RDT6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="RDU6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="RDV6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="RDX6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="RDY6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="RNM6">
         <v>2</v>
       </c>
       <c r="RNN6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="RNO6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="RNP6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="RNQ6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="RNR6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="RNT6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="RNU6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="RXI6">
         <v>2</v>
       </c>
       <c r="RXJ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="RXK6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="RXL6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="RXM6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="RXN6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="RXP6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="RXQ6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="SHE6">
         <v>2</v>
       </c>
       <c r="SHF6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="SHG6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="SHH6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="SHI6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="SHJ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="SHL6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="SHM6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="SRA6">
         <v>2</v>
       </c>
       <c r="SRB6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="SRC6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="SRD6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="SRE6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="SRF6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="SRH6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="SRI6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="TAW6">
         <v>2</v>
       </c>
       <c r="TAX6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="TAY6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="TAZ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="TBA6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="TBB6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="TBD6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="TBE6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="TKS6">
         <v>2</v>
       </c>
       <c r="TKT6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="TKU6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="TKV6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="TKW6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="TKX6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="TKZ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="TLA6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="TUO6">
         <v>2</v>
       </c>
       <c r="TUP6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="TUQ6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="TUR6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="TUS6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="TUT6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="TUV6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="TUW6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="UEK6">
         <v>2</v>
       </c>
       <c r="UEL6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="UEM6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="UEN6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="UEO6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="UEP6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="UER6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="UES6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="UOG6">
         <v>2</v>
       </c>
       <c r="UOH6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="UOI6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="UOJ6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="UOK6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="UOL6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="UON6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="UOO6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="UYC6">
         <v>2</v>
       </c>
       <c r="UYD6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="UYE6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="UYF6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="UYG6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="UYH6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="UYJ6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="UYK6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="VHY6">
         <v>2</v>
       </c>
       <c r="VHZ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="VIA6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="VIB6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="VIC6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="VID6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="VIF6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="VIG6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="VRU6">
         <v>2</v>
       </c>
       <c r="VRV6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="VRW6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="VRX6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="VRY6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="VRZ6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="VSB6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="VSC6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="WBQ6">
         <v>2</v>
       </c>
       <c r="WBR6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="WBS6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="WBT6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="WBU6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="WBV6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="WBX6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="WBY6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="WLM6">
         <v>2</v>
       </c>
       <c r="WLN6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="WLO6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="WLP6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="WLQ6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="WLR6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="WLT6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="WLU6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="WVI6">
         <v>2</v>
       </c>
       <c r="WVJ6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="WVK6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="WVL6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="WVM6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="WVN6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="WVP6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="WVQ6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16140" ht="13.5">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Harwin</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M20-9980345</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2201,14 +2112,20 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sullins</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRPC006SAAN-RC</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2221,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
@@ -2240,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="IX9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="IY9">
         <v>629105136821</v>
@@ -2252,10 +2169,10 @@
         <v>629105136821</v>
       </c>
       <c r="JB9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="JD9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="JE9">
         <v>629105136821</v>
@@ -2264,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="ST9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="SU9">
         <v>629105136821</v>
@@ -2276,10 +2193,10 @@
         <v>629105136821</v>
       </c>
       <c r="SX9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="SZ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="TA9">
         <v>629105136821</v>
@@ -2288,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="ACP9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="ACQ9">
         <v>629105136821</v>
@@ -2300,10 +2217,10 @@
         <v>629105136821</v>
       </c>
       <c r="ACT9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="ACV9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="ACW9">
         <v>629105136821</v>
@@ -2312,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="AML9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AMM9">
         <v>629105136821</v>
@@ -2324,10 +2241,10 @@
         <v>629105136821</v>
       </c>
       <c r="AMP9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AMR9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AMS9">
         <v>629105136821</v>
@@ -2336,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="AWH9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AWI9">
         <v>629105136821</v>
@@ -2348,10 +2265,10 @@
         <v>629105136821</v>
       </c>
       <c r="AWL9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AWN9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AWO9">
         <v>629105136821</v>
@@ -2360,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="BGD9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BGE9">
         <v>629105136821</v>
@@ -2372,10 +2289,10 @@
         <v>629105136821</v>
       </c>
       <c r="BGH9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="BGJ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="BGK9">
         <v>629105136821</v>
@@ -2384,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="BPZ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BQA9">
         <v>629105136821</v>
@@ -2396,10 +2313,10 @@
         <v>629105136821</v>
       </c>
       <c r="BQD9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="BQF9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="BQG9">
         <v>629105136821</v>
@@ -2408,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="BZV9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="BZW9">
         <v>629105136821</v>
@@ -2420,10 +2337,10 @@
         <v>629105136821</v>
       </c>
       <c r="BZZ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="CAB9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="CAC9">
         <v>629105136821</v>
@@ -2432,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="CJR9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="CJS9">
         <v>629105136821</v>
@@ -2444,10 +2361,10 @@
         <v>629105136821</v>
       </c>
       <c r="CJV9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="CJX9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="CJY9">
         <v>629105136821</v>
@@ -2456,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="CTN9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="CTO9">
         <v>629105136821</v>
@@ -2468,10 +2385,10 @@
         <v>629105136821</v>
       </c>
       <c r="CTR9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="CTT9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="CTU9">
         <v>629105136821</v>
@@ -2480,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="DDJ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="DDK9">
         <v>629105136821</v>
@@ -2492,10 +2409,10 @@
         <v>629105136821</v>
       </c>
       <c r="DDN9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="DDP9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="DDQ9">
         <v>629105136821</v>
@@ -2504,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="DNF9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="DNG9">
         <v>629105136821</v>
@@ -2516,10 +2433,10 @@
         <v>629105136821</v>
       </c>
       <c r="DNJ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="DNL9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="DNM9">
         <v>629105136821</v>
@@ -2528,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="DXB9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="DXC9">
         <v>629105136821</v>
@@ -2540,10 +2457,10 @@
         <v>629105136821</v>
       </c>
       <c r="DXF9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="DXH9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="DXI9">
         <v>629105136821</v>
@@ -2552,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="EGX9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="EGY9">
         <v>629105136821</v>
@@ -2564,10 +2481,10 @@
         <v>629105136821</v>
       </c>
       <c r="EHB9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="EHD9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="EHE9">
         <v>629105136821</v>
@@ -2576,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="EQT9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="EQU9">
         <v>629105136821</v>
@@ -2588,10 +2505,10 @@
         <v>629105136821</v>
       </c>
       <c r="EQX9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="EQZ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="ERA9">
         <v>629105136821</v>
@@ -2600,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="FAP9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="FAQ9">
         <v>629105136821</v>
@@ -2612,10 +2529,10 @@
         <v>629105136821</v>
       </c>
       <c r="FAT9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="FAV9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="FAW9">
         <v>629105136821</v>
@@ -2624,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="FKL9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="FKM9">
         <v>629105136821</v>
@@ -2636,10 +2553,10 @@
         <v>629105136821</v>
       </c>
       <c r="FKP9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="FKR9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="FKS9">
         <v>629105136821</v>
@@ -2648,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="FUH9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="FUI9">
         <v>629105136821</v>
@@ -2660,10 +2577,10 @@
         <v>629105136821</v>
       </c>
       <c r="FUL9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="FUN9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="FUO9">
         <v>629105136821</v>
@@ -2672,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="GED9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="GEE9">
         <v>629105136821</v>
@@ -2684,10 +2601,10 @@
         <v>629105136821</v>
       </c>
       <c r="GEH9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="GEJ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="GEK9">
         <v>629105136821</v>
@@ -2696,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="GNZ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="GOA9">
         <v>629105136821</v>
@@ -2708,10 +2625,10 @@
         <v>629105136821</v>
       </c>
       <c r="GOD9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="GOF9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="GOG9">
         <v>629105136821</v>
@@ -2720,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="GXV9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="GXW9">
         <v>629105136821</v>
@@ -2732,10 +2649,10 @@
         <v>629105136821</v>
       </c>
       <c r="GXZ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="GYB9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="GYC9">
         <v>629105136821</v>
@@ -2744,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="HHR9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="HHS9">
         <v>629105136821</v>
@@ -2756,10 +2673,10 @@
         <v>629105136821</v>
       </c>
       <c r="HHV9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="HHX9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="HHY9">
         <v>629105136821</v>
@@ -2768,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="HRN9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="HRO9">
         <v>629105136821</v>
@@ -2780,10 +2697,10 @@
         <v>629105136821</v>
       </c>
       <c r="HRR9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="HRT9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="HRU9">
         <v>629105136821</v>
@@ -2792,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="IBJ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="IBK9">
         <v>629105136821</v>
@@ -2804,10 +2721,10 @@
         <v>629105136821</v>
       </c>
       <c r="IBN9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="IBP9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="IBQ9">
         <v>629105136821</v>
@@ -2816,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="ILF9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="ILG9">
         <v>629105136821</v>
@@ -2828,10 +2745,10 @@
         <v>629105136821</v>
       </c>
       <c r="ILJ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="ILL9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="ILM9">
         <v>629105136821</v>
@@ -2840,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="IVB9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="IVC9">
         <v>629105136821</v>
@@ -2852,10 +2769,10 @@
         <v>629105136821</v>
       </c>
       <c r="IVF9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="IVH9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="IVI9">
         <v>629105136821</v>
@@ -2864,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="JEX9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="JEY9">
         <v>629105136821</v>
@@ -2876,10 +2793,10 @@
         <v>629105136821</v>
       </c>
       <c r="JFB9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="JFD9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="JFE9">
         <v>629105136821</v>
@@ -2888,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="JOT9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="JOU9">
         <v>629105136821</v>
@@ -2900,10 +2817,10 @@
         <v>629105136821</v>
       </c>
       <c r="JOX9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="JOZ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="JPA9">
         <v>629105136821</v>
@@ -2912,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="JYP9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="JYQ9">
         <v>629105136821</v>
@@ -2924,10 +2841,10 @@
         <v>629105136821</v>
       </c>
       <c r="JYT9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="JYV9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="JYW9">
         <v>629105136821</v>
@@ -2936,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="KIL9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="KIM9">
         <v>629105136821</v>
@@ -2948,10 +2865,10 @@
         <v>629105136821</v>
       </c>
       <c r="KIP9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="KIR9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="KIS9">
         <v>629105136821</v>
@@ -2960,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="KSH9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="KSI9">
         <v>629105136821</v>
@@ -2972,10 +2889,10 @@
         <v>629105136821</v>
       </c>
       <c r="KSL9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="KSN9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="KSO9">
         <v>629105136821</v>
@@ -2984,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="LCD9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="LCE9">
         <v>629105136821</v>
@@ -2996,10 +2913,10 @@
         <v>629105136821</v>
       </c>
       <c r="LCH9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="LCJ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="LCK9">
         <v>629105136821</v>
@@ -3008,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="LLZ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="LMA9">
         <v>629105136821</v>
@@ -3020,10 +2937,10 @@
         <v>629105136821</v>
       </c>
       <c r="LMD9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="LMF9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="LMG9">
         <v>629105136821</v>
@@ -3032,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="LVV9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="LVW9">
         <v>629105136821</v>
@@ -3044,10 +2961,10 @@
         <v>629105136821</v>
       </c>
       <c r="LVZ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="LWB9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="LWC9">
         <v>629105136821</v>
@@ -3056,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="MFR9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="MFS9">
         <v>629105136821</v>
@@ -3068,10 +2985,10 @@
         <v>629105136821</v>
       </c>
       <c r="MFV9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="MFX9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="MFY9">
         <v>629105136821</v>
@@ -3080,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="MPN9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="MPO9">
         <v>629105136821</v>
@@ -3092,10 +3009,10 @@
         <v>629105136821</v>
       </c>
       <c r="MPR9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="MPT9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="MPU9">
         <v>629105136821</v>
@@ -3104,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="MZJ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="MZK9">
         <v>629105136821</v>
@@ -3116,10 +3033,10 @@
         <v>629105136821</v>
       </c>
       <c r="MZN9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="MZP9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="MZQ9">
         <v>629105136821</v>
@@ -3128,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="NJF9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="NJG9">
         <v>629105136821</v>
@@ -3140,10 +3057,10 @@
         <v>629105136821</v>
       </c>
       <c r="NJJ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="NJL9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="NJM9">
         <v>629105136821</v>
@@ -3152,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="NTB9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="NTC9">
         <v>629105136821</v>
@@ -3164,10 +3081,10 @@
         <v>629105136821</v>
       </c>
       <c r="NTF9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="NTH9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="NTI9">
         <v>629105136821</v>
@@ -3176,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="OCX9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="OCY9">
         <v>629105136821</v>
@@ -3188,10 +3105,10 @@
         <v>629105136821</v>
       </c>
       <c r="ODB9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="ODD9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="ODE9">
         <v>629105136821</v>
@@ -3200,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="OMT9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="OMU9">
         <v>629105136821</v>
@@ -3212,10 +3129,10 @@
         <v>629105136821</v>
       </c>
       <c r="OMX9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="OMZ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="ONA9">
         <v>629105136821</v>
@@ -3224,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="OWP9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="OWQ9">
         <v>629105136821</v>
@@ -3236,10 +3153,10 @@
         <v>629105136821</v>
       </c>
       <c r="OWT9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="OWV9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="OWW9">
         <v>629105136821</v>
@@ -3248,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="PGL9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="PGM9">
         <v>629105136821</v>
@@ -3260,10 +3177,10 @@
         <v>629105136821</v>
       </c>
       <c r="PGP9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="PGR9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="PGS9">
         <v>629105136821</v>
@@ -3272,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="PQH9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="PQI9">
         <v>629105136821</v>
@@ -3284,10 +3201,10 @@
         <v>629105136821</v>
       </c>
       <c r="PQL9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="PQN9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="PQO9">
         <v>629105136821</v>
@@ -3296,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="QAD9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="QAE9">
         <v>629105136821</v>
@@ -3308,10 +3225,10 @@
         <v>629105136821</v>
       </c>
       <c r="QAH9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="QAJ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="QAK9">
         <v>629105136821</v>
@@ -3320,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="QJZ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="QKA9">
         <v>629105136821</v>
@@ -3332,10 +3249,10 @@
         <v>629105136821</v>
       </c>
       <c r="QKD9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="QKF9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="QKG9">
         <v>629105136821</v>
@@ -3344,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="QTV9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="QTW9">
         <v>629105136821</v>
@@ -3356,10 +3273,10 @@
         <v>629105136821</v>
       </c>
       <c r="QTZ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="QUB9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="QUC9">
         <v>629105136821</v>
@@ -3368,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="RDR9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="RDS9">
         <v>629105136821</v>
@@ -3380,10 +3297,10 @@
         <v>629105136821</v>
       </c>
       <c r="RDV9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="RDX9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="RDY9">
         <v>629105136821</v>
@@ -3392,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="RNN9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="RNO9">
         <v>629105136821</v>
@@ -3404,10 +3321,10 @@
         <v>629105136821</v>
       </c>
       <c r="RNR9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="RNT9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="RNU9">
         <v>629105136821</v>
@@ -3416,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="RXJ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="RXK9">
         <v>629105136821</v>
@@ -3428,10 +3345,10 @@
         <v>629105136821</v>
       </c>
       <c r="RXN9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="RXP9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="RXQ9">
         <v>629105136821</v>
@@ -3440,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="SHF9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="SHG9">
         <v>629105136821</v>
@@ -3452,10 +3369,10 @@
         <v>629105136821</v>
       </c>
       <c r="SHJ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="SHL9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="SHM9">
         <v>629105136821</v>
@@ -3464,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="SRB9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="SRC9">
         <v>629105136821</v>
@@ -3476,10 +3393,10 @@
         <v>629105136821</v>
       </c>
       <c r="SRF9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="SRH9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="SRI9">
         <v>629105136821</v>
@@ -3488,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="TAX9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="TAY9">
         <v>629105136821</v>
@@ -3500,10 +3417,10 @@
         <v>629105136821</v>
       </c>
       <c r="TBB9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="TBD9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="TBE9">
         <v>629105136821</v>
@@ -3512,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="TKT9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="TKU9">
         <v>629105136821</v>
@@ -3524,10 +3441,10 @@
         <v>629105136821</v>
       </c>
       <c r="TKX9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="TKZ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="TLA9">
         <v>629105136821</v>
@@ -3536,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="TUP9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="TUQ9">
         <v>629105136821</v>
@@ -3548,10 +3465,10 @@
         <v>629105136821</v>
       </c>
       <c r="TUT9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="TUV9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="TUW9">
         <v>629105136821</v>
@@ -3560,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="UEL9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="UEM9">
         <v>629105136821</v>
@@ -3572,10 +3489,10 @@
         <v>629105136821</v>
       </c>
       <c r="UEP9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="UER9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="UES9">
         <v>629105136821</v>
@@ -3584,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="UOH9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="UOI9">
         <v>629105136821</v>
@@ -3596,10 +3513,10 @@
         <v>629105136821</v>
       </c>
       <c r="UOL9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="UON9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="UOO9">
         <v>629105136821</v>
@@ -3608,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="UYD9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="UYE9">
         <v>629105136821</v>
@@ -3620,10 +3537,10 @@
         <v>629105136821</v>
       </c>
       <c r="UYH9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="UYJ9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="UYK9">
         <v>629105136821</v>
@@ -3632,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="VHZ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="VIA9">
         <v>629105136821</v>
@@ -3644,10 +3561,10 @@
         <v>629105136821</v>
       </c>
       <c r="VID9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="VIF9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="VIG9">
         <v>629105136821</v>
@@ -3656,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="VRV9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="VRW9">
         <v>629105136821</v>
@@ -3668,10 +3585,10 @@
         <v>629105136821</v>
       </c>
       <c r="VRZ9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="VSB9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="VSC9">
         <v>629105136821</v>
@@ -3680,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="WBR9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="WBS9">
         <v>629105136821</v>
@@ -3692,10 +3609,10 @@
         <v>629105136821</v>
       </c>
       <c r="WBV9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="WBX9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="WBY9">
         <v>629105136821</v>
@@ -3704,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="WLN9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="WLO9">
         <v>629105136821</v>
@@ -3716,10 +3633,10 @@
         <v>629105136821</v>
       </c>
       <c r="WLR9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="WLT9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="WLU9">
         <v>629105136821</v>
@@ -3728,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="WVJ9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="WVK9">
         <v>629105136821</v>
@@ -3740,10 +3657,10 @@
         <v>629105136821</v>
       </c>
       <c r="WVN9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="WVP9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="WVQ9">
         <v>629105136821</v>
@@ -3753,14 +3670,20 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CUI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PJ-202A</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3773,13 +3696,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3790,31 +3713,31 @@
         <v>1</v>
       </c>
       <c r="IX11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="IY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="IZ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="JA11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="JB11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="JD11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="JE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JF11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JG11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JH11">
         <v>5</v>
@@ -3823,31 +3746,31 @@
         <v>1</v>
       </c>
       <c r="ST11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="SU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="SV11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="SW11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="SX11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="SZ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="TA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TB11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TC11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TD11">
         <v>5</v>
@@ -3856,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="ACP11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="ACQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ACR11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="ACS11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="ACT11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="ACV11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="ACW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ACX11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ACY11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ACZ11">
         <v>5</v>
@@ -3889,31 +3812,31 @@
         <v>1</v>
       </c>
       <c r="AML11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AMM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AMN11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="AMO11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AMP11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AMR11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AMS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AMT11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AMU11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AMV11">
         <v>5</v>
@@ -3922,31 +3845,31 @@
         <v>1</v>
       </c>
       <c r="AWH11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AWI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AWJ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="AWK11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AWL11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AWN11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AWO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AWP11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AWQ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AWR11">
         <v>5</v>
@@ -3955,31 +3878,31 @@
         <v>1</v>
       </c>
       <c r="BGD11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="BGE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BGF11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="BGG11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="BGH11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="BGJ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="BGK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BGL11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="BGM11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="BGN11">
         <v>5</v>
@@ -3988,31 +3911,31 @@
         <v>1</v>
       </c>
       <c r="BPZ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="BQA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BQB11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="BQC11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="BQD11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="BQF11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="BQG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BQH11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="BQI11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="BQJ11">
         <v>5</v>
@@ -4021,31 +3944,31 @@
         <v>1</v>
       </c>
       <c r="BZV11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="BZW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BZX11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="BZY11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="BZZ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="CAB11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="CAC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="CAD11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="CAE11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="CAF11">
         <v>5</v>
@@ -4054,31 +3977,31 @@
         <v>1</v>
       </c>
       <c r="CJR11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="CJS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="CJT11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="CJU11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="CJV11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="CJX11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="CJY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="CJZ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="CKA11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="CKB11">
         <v>5</v>
@@ -4087,31 +4010,31 @@
         <v>1</v>
       </c>
       <c r="CTN11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="CTO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="CTP11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="CTQ11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="CTR11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="CTT11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="CTU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="CTV11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="CTW11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="CTX11">
         <v>5</v>
@@ -4120,31 +4043,31 @@
         <v>1</v>
       </c>
       <c r="DDJ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="DDK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="DDL11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="DDM11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="DDN11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="DDP11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="DDQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="DDR11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DDS11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DDT11">
         <v>5</v>
@@ -4153,31 +4076,31 @@
         <v>1</v>
       </c>
       <c r="DNF11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="DNG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="DNH11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="DNI11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="DNJ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="DNL11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="DNM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="DNN11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DNO11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DNP11">
         <v>5</v>
@@ -4186,31 +4109,31 @@
         <v>1</v>
       </c>
       <c r="DXB11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="DXC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="DXD11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="DXE11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="DXF11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="DXH11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="DXI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="DXJ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DXK11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="DXL11">
         <v>5</v>
@@ -4219,31 +4142,31 @@
         <v>1</v>
       </c>
       <c r="EGX11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="EGY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="EGZ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="EHA11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="EHB11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="EHD11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="EHE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="EHF11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="EHG11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="EHH11">
         <v>5</v>
@@ -4252,31 +4175,31 @@
         <v>1</v>
       </c>
       <c r="EQT11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="EQU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="EQV11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="EQW11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="EQX11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="EQZ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="ERA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ERB11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ERC11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ERD11">
         <v>5</v>
@@ -4285,31 +4208,31 @@
         <v>1</v>
       </c>
       <c r="FAP11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="FAQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="FAR11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="FAS11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="FAT11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="FAV11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="FAW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="FAX11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="FAY11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="FAZ11">
         <v>5</v>
@@ -4318,31 +4241,31 @@
         <v>1</v>
       </c>
       <c r="FKL11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="FKM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="FKN11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="FKO11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="FKP11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="FKR11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="FKS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="FKT11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="FKU11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="FKV11">
         <v>5</v>
@@ -4351,31 +4274,31 @@
         <v>1</v>
       </c>
       <c r="FUH11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="FUI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="FUJ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="FUK11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="FUL11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="FUN11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="FUO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="FUP11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="FUQ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="FUR11">
         <v>5</v>
@@ -4384,31 +4307,31 @@
         <v>1</v>
       </c>
       <c r="GED11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="GEE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="GEF11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="GEG11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="GEH11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="GEJ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="GEK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="GEL11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="GEM11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="GEN11">
         <v>5</v>
@@ -4417,31 +4340,31 @@
         <v>1</v>
       </c>
       <c r="GNZ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="GOA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="GOB11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="GOC11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="GOD11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="GOF11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="GOG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="GOH11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="GOI11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="GOJ11">
         <v>5</v>
@@ -4450,31 +4373,31 @@
         <v>1</v>
       </c>
       <c r="GXV11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="GXW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="GXX11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="GXY11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="GXZ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="GYB11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="GYC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="GYD11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="GYE11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="GYF11">
         <v>5</v>
@@ -4483,31 +4406,31 @@
         <v>1</v>
       </c>
       <c r="HHR11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="HHS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="HHT11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="HHU11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="HHV11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="HHX11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="HHY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="HHZ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="HIA11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="HIB11">
         <v>5</v>
@@ -4516,31 +4439,31 @@
         <v>1</v>
       </c>
       <c r="HRN11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="HRO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="HRP11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="HRQ11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="HRR11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="HRT11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="HRU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="HRV11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="HRW11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="HRX11">
         <v>5</v>
@@ -4549,31 +4472,31 @@
         <v>1</v>
       </c>
       <c r="IBJ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="IBK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="IBL11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="IBM11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="IBN11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="IBP11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="IBQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="IBR11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="IBS11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="IBT11">
         <v>5</v>
@@ -4582,31 +4505,31 @@
         <v>1</v>
       </c>
       <c r="ILF11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="ILG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ILH11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="ILI11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="ILJ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="ILL11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="ILM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ILN11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ILO11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ILP11">
         <v>5</v>
@@ -4615,31 +4538,31 @@
         <v>1</v>
       </c>
       <c r="IVB11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="IVC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="IVD11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="IVE11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="IVF11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="IVH11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="IVI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="IVJ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="IVK11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="IVL11">
         <v>5</v>
@@ -4648,31 +4571,31 @@
         <v>1</v>
       </c>
       <c r="JEX11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="JEY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JEZ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="JFA11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="JFB11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="JFD11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="JFE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JFF11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JFG11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JFH11">
         <v>5</v>
@@ -4681,31 +4604,31 @@
         <v>1</v>
       </c>
       <c r="JOT11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="JOU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JOV11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="JOW11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="JOX11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="JOZ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="JPA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JPB11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JPC11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JPD11">
         <v>5</v>
@@ -4714,31 +4637,31 @@
         <v>1</v>
       </c>
       <c r="JYP11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="JYQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JYR11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="JYS11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="JYT11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="JYV11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="JYW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="JYX11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JYY11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="JYZ11">
         <v>5</v>
@@ -4747,31 +4670,31 @@
         <v>1</v>
       </c>
       <c r="KIL11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="KIM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="KIN11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="KIO11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="KIP11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="KIR11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="KIS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="KIT11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="KIU11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="KIV11">
         <v>5</v>
@@ -4780,31 +4703,31 @@
         <v>1</v>
       </c>
       <c r="KSH11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="KSI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="KSJ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="KSK11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="KSL11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="KSN11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="KSO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="KSP11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="KSQ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="KSR11">
         <v>5</v>
@@ -4813,31 +4736,31 @@
         <v>1</v>
       </c>
       <c r="LCD11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="LCE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="LCF11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="LCG11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="LCH11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="LCJ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="LCK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="LCL11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="LCM11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="LCN11">
         <v>5</v>
@@ -4846,31 +4769,31 @@
         <v>1</v>
       </c>
       <c r="LLZ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="LMA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="LMB11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="LMC11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="LMD11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="LMF11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="LMG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="LMH11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="LMI11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="LMJ11">
         <v>5</v>
@@ -4879,31 +4802,31 @@
         <v>1</v>
       </c>
       <c r="LVV11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="LVW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="LVX11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="LVY11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="LVZ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="LWB11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="LWC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="LWD11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="LWE11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="LWF11">
         <v>5</v>
@@ -4912,31 +4835,31 @@
         <v>1</v>
       </c>
       <c r="MFR11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="MFS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="MFT11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="MFU11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="MFV11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="MFX11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="MFY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="MFZ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="MGA11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="MGB11">
         <v>5</v>
@@ -4945,31 +4868,31 @@
         <v>1</v>
       </c>
       <c r="MPN11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="MPO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="MPP11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="MPQ11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="MPR11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="MPT11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="MPU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="MPV11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="MPW11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="MPX11">
         <v>5</v>
@@ -4978,31 +4901,31 @@
         <v>1</v>
       </c>
       <c r="MZJ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="MZK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="MZL11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="MZM11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="MZN11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="MZP11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="MZQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="MZR11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="MZS11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="MZT11">
         <v>5</v>
@@ -5011,31 +4934,31 @@
         <v>1</v>
       </c>
       <c r="NJF11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="NJG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="NJH11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="NJI11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="NJJ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="NJL11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="NJM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="NJN11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="NJO11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="NJP11">
         <v>5</v>
@@ -5044,31 +4967,31 @@
         <v>1</v>
       </c>
       <c r="NTB11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="NTC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="NTD11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="NTE11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="NTF11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="NTH11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="NTI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="NTJ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="NTK11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="NTL11">
         <v>5</v>
@@ -5077,31 +5000,31 @@
         <v>1</v>
       </c>
       <c r="OCX11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="OCY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="OCZ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="ODA11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="ODB11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="ODD11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="ODE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ODF11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ODG11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ODH11">
         <v>5</v>
@@ -5110,31 +5033,31 @@
         <v>1</v>
       </c>
       <c r="OMT11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="OMU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="OMV11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="OMW11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="OMX11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="OMZ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="ONA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="ONB11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="ONC11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="OND11">
         <v>5</v>
@@ -5143,31 +5066,31 @@
         <v>1</v>
       </c>
       <c r="OWP11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="OWQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="OWR11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="OWS11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="OWT11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="OWV11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="OWW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="OWX11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="OWY11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="OWZ11">
         <v>5</v>
@@ -5176,31 +5099,31 @@
         <v>1</v>
       </c>
       <c r="PGL11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="PGM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="PGN11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="PGO11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="PGP11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="PGR11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="PGS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="PGT11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="PGU11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="PGV11">
         <v>5</v>
@@ -5209,31 +5132,31 @@
         <v>1</v>
       </c>
       <c r="PQH11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="PQI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="PQJ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="PQK11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="PQL11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="PQN11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="PQO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="PQP11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="PQQ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="PQR11">
         <v>5</v>
@@ -5242,31 +5165,31 @@
         <v>1</v>
       </c>
       <c r="QAD11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="QAE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="QAF11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="QAG11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="QAH11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="QAJ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="QAK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="QAL11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="QAM11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="QAN11">
         <v>5</v>
@@ -5275,31 +5198,31 @@
         <v>1</v>
       </c>
       <c r="QJZ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="QKA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="QKB11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="QKC11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="QKD11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="QKF11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="QKG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="QKH11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="QKI11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="QKJ11">
         <v>5</v>
@@ -5308,31 +5231,31 @@
         <v>1</v>
       </c>
       <c r="QTV11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="QTW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="QTX11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="QTY11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="QTZ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="QUB11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="QUC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="QUD11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="QUE11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="QUF11">
         <v>5</v>
@@ -5341,31 +5264,31 @@
         <v>1</v>
       </c>
       <c r="RDR11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="RDS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="RDT11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="RDU11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="RDV11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="RDX11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="RDY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="RDZ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="REA11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="REB11">
         <v>5</v>
@@ -5374,31 +5297,31 @@
         <v>1</v>
       </c>
       <c r="RNN11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="RNO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="RNP11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="RNQ11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="RNR11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="RNT11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="RNU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="RNV11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="RNW11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="RNX11">
         <v>5</v>
@@ -5407,31 +5330,31 @@
         <v>1</v>
       </c>
       <c r="RXJ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="RXK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="RXL11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="RXM11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="RXN11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="RXP11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="RXQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="RXR11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="RXS11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="RXT11">
         <v>5</v>
@@ -5440,31 +5363,31 @@
         <v>1</v>
       </c>
       <c r="SHF11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="SHG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="SHH11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="SHI11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="SHJ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="SHL11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="SHM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="SHN11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="SHO11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="SHP11">
         <v>5</v>
@@ -5473,31 +5396,31 @@
         <v>1</v>
       </c>
       <c r="SRB11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="SRC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="SRD11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="SRE11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="SRF11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="SRH11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="SRI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="SRJ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="SRK11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="SRL11">
         <v>5</v>
@@ -5506,31 +5429,31 @@
         <v>1</v>
       </c>
       <c r="TAX11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="TAY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TAZ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="TBA11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="TBB11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="TBD11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="TBE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TBF11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TBG11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TBH11">
         <v>5</v>
@@ -5539,31 +5462,31 @@
         <v>1</v>
       </c>
       <c r="TKT11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="TKU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TKV11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="TKW11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="TKX11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="TKZ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="TLA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TLB11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TLC11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TLD11">
         <v>5</v>
@@ -5572,31 +5495,31 @@
         <v>1</v>
       </c>
       <c r="TUP11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="TUQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TUR11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="TUS11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="TUT11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="TUV11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="TUW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="TUX11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TUY11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="TUZ11">
         <v>5</v>
@@ -5605,31 +5528,31 @@
         <v>1</v>
       </c>
       <c r="UEL11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="UEM11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="UEN11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="UEO11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="UEP11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="UER11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="UES11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="UET11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="UEU11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="UEV11">
         <v>5</v>
@@ -5638,31 +5561,31 @@
         <v>1</v>
       </c>
       <c r="UOH11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="UOI11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="UOJ11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="UOK11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="UOL11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="UON11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="UOO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="UOP11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="UOQ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="UOR11">
         <v>5</v>
@@ -5671,31 +5594,31 @@
         <v>1</v>
       </c>
       <c r="UYD11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="UYE11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="UYF11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="UYG11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="UYH11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="UYJ11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="UYK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="UYL11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="UYM11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="UYN11">
         <v>5</v>
@@ -5704,31 +5627,31 @@
         <v>1</v>
       </c>
       <c r="VHZ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="VIA11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="VIB11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="VIC11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="VID11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="VIF11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="VIG11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="VIH11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="VII11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="VIJ11">
         <v>5</v>
@@ -5737,31 +5660,31 @@
         <v>1</v>
       </c>
       <c r="VRV11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="VRW11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="VRX11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="VRY11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="VRZ11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="VSB11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="VSC11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="VSD11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="VSE11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="VSF11">
         <v>5</v>
@@ -5770,31 +5693,31 @@
         <v>1</v>
       </c>
       <c r="WBR11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="WBS11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="WBT11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="WBU11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="WBV11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="WBX11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="WBY11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="WBZ11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="WCA11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="WCB11">
         <v>5</v>
@@ -5803,31 +5726,31 @@
         <v>1</v>
       </c>
       <c r="WLN11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="WLO11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="WLP11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="WLQ11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="WLR11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="WLT11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="WLU11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="WLV11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="WLW11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="WLX11">
         <v>5</v>
@@ -5836,31 +5759,31 @@
         <v>1</v>
       </c>
       <c r="WVJ11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="WVK11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="WVL11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="WVM11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="WVN11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="WVP11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="WVQ11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="WVR11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="WVS11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="WVT11">
         <v>5</v>
@@ -5870,14 +5793,18 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R1, R6</t>
+        </is>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RC0805FR-0710KL</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5889,14 +5816,18 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R2, R3, R4, R5</t>
+        </is>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>RC0805FR-071KL</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -5908,14 +5839,18 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R7, R8</t>
+        </is>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>RC0805JR-070RL</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5932,28 +5867,40 @@
           <t>SW1</t>
         </is>
       </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C&amp;K</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RS-187R05A2-DS MT RT</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+        </is>
       </c>
     </row>
     <row r="16" spans="1:16140" ht="13.5">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>U1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ON Semiconductor</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NCP1117ST50T3G</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -5965,14 +5912,20 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>U4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Microchip</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ATMEGA328P-PU</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -5984,14 +5937,20 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ECS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ECS-160-18-5PX-TR</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
